--- a/2022_02_24/EUROSTOXX/2022_02_24_EUROSTOXX_MaxArea_Portfolio_250.xlsx
+++ b/2022_02_24/EUROSTOXX/2022_02_24_EUROSTOXX_MaxArea_Portfolio_250.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\2022_02_24\EUROSTOXX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70123B07-9D9B-4952-8350-EAF0878D5999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5127E2A8-D313-4ABA-AE02-E3E493F52663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
     <col min="3" max="3" width="7.81640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -835,8 +835,192 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="1">
+        <f>A2/153</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:AR3" si="0">B2/153</f>
+        <v>0.15852177893502248</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10616530861166806</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24070394271352902</v>
+      </c>
+      <c r="AK3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23207018295574472</v>
+      </c>
+      <c r="AM3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26253878678403575</v>
+      </c>
+      <c r="AQ3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:44">
       <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="1">
+        <f>SUM(2:2)</f>
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
